--- a/plan/0.시스템/[13신창섭150711]퀘스트 시스템.xlsx
+++ b/plan/0.시스템/[13신창섭150711]퀘스트 시스템.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leinster/Google 드라이브/졸업작품/졸업작품/0.시스템/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leinster/Desktop/gamebusdriver/plan/0.시스템/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="플레이어 조작" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>1. 기획의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,107 @@
   </si>
   <si>
     <t>questStory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트의 타입을 정하는 값이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 타입의 값에 따른 설정값 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 타입의 값에 따른 설정값 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 타입의 값에 따른 설정값 3</t>
+  </si>
+  <si>
+    <t>퀘스트 타입의 값에 따른 설정값 4</t>
+  </si>
+  <si>
+    <t>퀘스트 타입의 값에 따른 설정값 5</t>
+  </si>
+  <si>
+    <t>퀘스트에 따른 보상 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상1의 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트에 따른 보상 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트에 따른 보상 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트에 따른 보상 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트에 따른 보상 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트의 시작 가능 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트의 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questMiddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questScript.txt에 따른 퀘스트의 시작 스크립트 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questScript.txt에 따른 퀘스트의 중간 스크립트 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questScript.txt에 따른 퀘스트의 끝 스크립트 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 ui상에서 노출될 퀘스트 내용 단축본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트를 시작할 수 있는 npc. Npcposition의 no값을 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">questStartNpc </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questEndNpc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트를 완료할 수 있는 npc. Npcposition의 no값을 사용한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -208,6 +309,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -234,13 +346,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="15">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -535,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:CN36"/>
+  <dimension ref="B2:CN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="108" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -718,105 +833,200 @@
       <c r="F16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="1" t="s">
-        <v>22</v>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
